--- a/bribes.xlsx
+++ b/bribes.xlsx
@@ -14,19 +14,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Token address</t>
+  </si>
+  <si>
+    <t>Token symbol</t>
+  </si>
+  <si>
+    <t>Token amount</t>
+  </si>
+  <si>
+    <t>Amount in $</t>
+  </si>
+  <si>
+    <t>Token value</t>
+  </si>
+  <si>
+    <t>Pool name</t>
+  </si>
+  <si>
+    <t>Pool address</t>
+  </si>
+  <si>
+    <t>Tx hash</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Block number</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +85,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -362,25 +426,61 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>